--- a/game31/web.xlsx
+++ b/game31/web.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19020" windowHeight="8235"/>
+    <workbookView windowWidth="12960" windowHeight="4560"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="15" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId1"/>
     <sheet name="Sheet5" sheetId="10" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="13" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="14" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="14" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>domain</t>
   </si>
@@ -38,190 +37,121 @@
     <t>color1</t>
   </si>
   <si>
-    <t>#bd9683</t>
-  </si>
-  <si>
-    <t>#38dbf8</t>
-  </si>
-  <si>
-    <t>#ff6b35</t>
-  </si>
-  <si>
-    <t>#4caf50</t>
+    <t>color2</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>epigonium.com</t>
+  </si>
+  <si>
+    <t>#ffd9a3</t>
+  </si>
+  <si>
+    <t>#a37070</t>
+  </si>
+  <si>
+    <t>blennorrhea.com</t>
+  </si>
+  <si>
+    <t>#f597ba</t>
+  </si>
+  <si>
+    <t>#4167b1</t>
+  </si>
+  <si>
+    <t>cataclinal.com</t>
+  </si>
+  <si>
+    <t>#b8f500</t>
+  </si>
+  <si>
+    <t>#d62828</t>
+  </si>
+  <si>
+    <t>jaculation.com</t>
+  </si>
+  <si>
+    <t>#bdd0c4</t>
+  </si>
+  <si>
+    <t>#e58889</t>
+  </si>
+  <si>
+    <t>labialism.com</t>
+  </si>
+  <si>
+    <t>#f0ff31</t>
+  </si>
+  <si>
+    <t>#b57743</t>
+  </si>
+  <si>
+    <t>rounces.top</t>
+  </si>
+  <si>
+    <t>#ffa500</t>
   </si>
   <si>
     <t>#bce3fe</t>
   </si>
   <si>
-    <t>#ffa500</t>
+    <t>banderole.top</t>
+  </si>
+  <si>
+    <t>#def0f9</t>
+  </si>
+  <si>
+    <t>peytrels.top</t>
+  </si>
+  <si>
+    <t>#f8e9a1</t>
+  </si>
+  <si>
+    <t>lintels.fun</t>
+  </si>
+  <si>
+    <t>#f9f0ed</t>
+  </si>
+  <si>
+    <t>nargilehs.fun</t>
+  </si>
+  <si>
+    <t>#ebdec6</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>vernations.cloud</t>
+  </si>
+  <si>
+    <t>mizars.cloud</t>
   </si>
   <si>
     <t>#9d4edd</t>
   </si>
   <si>
+    <t>hortus.cloud</t>
+  </si>
+  <si>
     <t>#64ffda</t>
   </si>
   <si>
+    <t>cruppers.top</t>
+  </si>
+  <si>
     <t>#e63946</t>
   </si>
   <si>
+    <t>secateurs.top</t>
+  </si>
+  <si>
     <t>#c9a87a</t>
-  </si>
-  <si>
-    <t>#ff88ff</t>
-  </si>
-  <si>
-    <t>#20b2aa</t>
-  </si>
-  <si>
-    <t>#98fb98</t>
-  </si>
-  <si>
-    <t>#ba55d3</t>
-  </si>
-  <si>
-    <t>#4b0082</t>
-  </si>
-  <si>
-    <t>#0a192f</t>
-  </si>
-  <si>
-    <t>#746097</t>
-  </si>
-  <si>
-    <t>#c2849f</t>
-  </si>
-  <si>
-    <t>#8bbb6a</t>
-  </si>
-  <si>
-    <t>#8cd1bc</t>
-  </si>
-  <si>
-    <t>#eba46f</t>
-  </si>
-  <si>
-    <t>#dc7067</t>
-  </si>
-  <si>
-    <t>#f0cfe3</t>
-  </si>
-  <si>
-    <t>#bdeae5</t>
-  </si>
-  <si>
-    <t>#36B06F</t>
-  </si>
-  <si>
-    <t>#ff9988</t>
-  </si>
-  <si>
-    <t>#30abc5</t>
-  </si>
-  <si>
-    <t>#e7bf40</t>
-  </si>
-  <si>
-    <t>#a4dd52</t>
-  </si>
-  <si>
-    <t>#Fd8134</t>
-  </si>
-  <si>
-    <t>#b0e7a4</t>
-  </si>
-  <si>
-    <t>#c2aadd</t>
-  </si>
-  <si>
-    <t>#d74f75</t>
-  </si>
-  <si>
-    <t>#1e90ff</t>
-  </si>
-  <si>
-    <t>color2</t>
-  </si>
-  <si>
-    <t>rounces.top</t>
-  </si>
-  <si>
-    <t>banderole.top</t>
-  </si>
-  <si>
-    <t>#def0f9</t>
-  </si>
-  <si>
-    <t>#4167b1</t>
-  </si>
-  <si>
-    <t>peytrels.top</t>
-  </si>
-  <si>
-    <t>#f8e9a1</t>
-  </si>
-  <si>
-    <t>#d62828</t>
-  </si>
-  <si>
-    <t>lintels.fun</t>
-  </si>
-  <si>
-    <t>#f9f0ed</t>
-  </si>
-  <si>
-    <t>#e58889</t>
-  </si>
-  <si>
-    <t>nargilehs.fun</t>
-  </si>
-  <si>
-    <t>#ebdec6</t>
-  </si>
-  <si>
-    <t>#b57743</t>
-  </si>
-  <si>
-    <t>info</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>ogees.fun</t>
-  </si>
-  <si>
-    <t>#016a7d</t>
-  </si>
-  <si>
-    <t>newels.fun</t>
-  </si>
-  <si>
-    <t>epicalyxs.fun</t>
-  </si>
-  <si>
-    <t>callipyes.com</t>
-  </si>
-  <si>
-    <t>epeolatrys.com</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>vernations.cloud</t>
-  </si>
-  <si>
-    <t>mizars.cloud</t>
-  </si>
-  <si>
-    <t>hortus.cloud</t>
-  </si>
-  <si>
-    <t>cruppers.top</t>
-  </si>
-  <si>
-    <t>secateurs.top</t>
   </si>
   <si>
     <t>spuddles.fun</t>
@@ -309,9 +239,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="9"/>
-      <color rgb="FF800080"/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -468,7 +397,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="78">
+  <fills count="54">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,36 +448,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF016A7D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE7BF40"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF36B06F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9988"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF30ABC5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDEF0F9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -597,151 +496,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBD9683"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF38DBF8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6B35"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4CAF50"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBCE3FE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF88FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF20B2AA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF98FB98"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBA55D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4B0082"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0A192F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF746097"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC2849F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8BBB6A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8CD1BC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEBA46F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDC7067"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0CFE3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDEAE5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA4DD52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFD8134"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB0E7A4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC2AADD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD74F75"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1E90FF"/>
+        <fgColor rgb="FFFFD9A3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA37070"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF597BA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8F500"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD0C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0FF31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,7 +847,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="47" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1086,16 +871,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="48" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="49" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="49" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="50" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1104,89 +889,89 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1215,21 +1000,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1239,133 +1009,58 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1751,300 +1446,123 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="26">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="E2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="26">
-        <v>2</v>
-      </c>
-      <c r="B3" s="28" t="s">
+      <c r="E3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="26">
-        <v>3</v>
-      </c>
-      <c r="B4" s="29" t="s">
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="26">
-        <v>4</v>
-      </c>
-      <c r="B5" s="30" t="s">
+      <c r="E5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="26">
-        <v>5</v>
-      </c>
-      <c r="B6" s="31" t="s">
+      <c r="E6">
         <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="26">
-        <v>6</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="26">
-        <v>7</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="26">
-        <v>8</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="26">
-        <v>9</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="26">
-        <v>10</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="26">
-        <v>11</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="26">
-        <v>12</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="26">
-        <v>13</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="26">
-        <v>14</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="26">
-        <v>15</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="26">
-        <v>16</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="26">
-        <v>17</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="26">
-        <v>18</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="26">
-        <v>19</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="26">
-        <v>20</v>
-      </c>
-      <c r="B21" s="46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="26">
-        <v>21</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="26">
-        <v>22</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="26">
-        <v>23</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="26">
-        <v>24</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="51" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="26">
-        <v>26</v>
-      </c>
-      <c r="B27" s="52" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="26">
-        <v>27</v>
-      </c>
-      <c r="B28" s="53" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="26">
-        <v>28</v>
-      </c>
-      <c r="B29" s="54" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="26">
-        <v>29</v>
-      </c>
-      <c r="B30" s="55" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="26">
-        <v>30</v>
-      </c>
-      <c r="B31" s="56" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="26">
-        <v>31</v>
-      </c>
-      <c r="B32" s="57" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="26">
-        <v>32</v>
-      </c>
-      <c r="B33" s="58" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="26">
-        <v>33</v>
-      </c>
-      <c r="B34" s="59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="26">
-        <v>34</v>
-      </c>
-      <c r="B35" s="60" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="2"/>
-    <hyperlink ref="A4" r:id="rId2" display="3"/>
-    <hyperlink ref="A5" r:id="rId3" display="4"/>
-    <hyperlink ref="A6" r:id="rId4" display="5"/>
+    <hyperlink ref="A2" r:id="rId1" display="epigonium.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="blennorrhea.com"/>
+    <hyperlink ref="A4" r:id="rId3" display="cataclinal.com"/>
+    <hyperlink ref="A5" r:id="rId4" display="jaculation.com"/>
+    <hyperlink ref="A6" r:id="rId5" display="labialism.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2057,7 +1575,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -2073,70 +1591,70 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>6</v>
+      <c r="A2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:5">
-      <c r="A3" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="15"/>
+      <c r="A3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" ht="16.5" spans="1:5">
-      <c r="A4" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="A4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" ht="16.5" spans="1:5">
-      <c r="A5" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="A5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="A6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2154,117 +1672,6 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="ogees.fun"/>
-    <hyperlink ref="A3" r:id="rId2" display="newels.fun"/>
-    <hyperlink ref="A4" r:id="rId3" display="epicalyxs.fun"/>
-    <hyperlink ref="A5" r:id="rId4" display="callipyes.com"/>
-    <hyperlink ref="A6" r:id="rId5" display="epeolatrys.com"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2281,24 +1688,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2309,10 +1716,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2323,10 +1730,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -2337,10 +1744,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -2351,10 +1758,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -2365,18 +1772,18 @@
     </row>
     <row r="16" spans="1:7">
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
